--- a/training_setup.xlsx
+++ b/training_setup.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredde/Box Sync/GitHub/ML-FO_Flow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredde/Dropbox/ML-flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="27640" windowHeight="16240"/>
+    <workbookView xWindow="4020" yWindow="460" windowWidth="27640" windowHeight="16240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="32">
   <si>
     <t>test_no</t>
   </si>
@@ -115,6 +117,12 @@
   <si>
     <t>me4</t>
   </si>
+  <si>
+    <t>TC_RPM</t>
+  </si>
+  <si>
+    <t>no_vars</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,19 +176,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -192,13 +224,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -521,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AM30" sqref="X1:AM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -636,19 +661,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>T1&amp;"_"&amp;X1</f>
+        <f t="shared" ref="C2:C31" si="0">T1&amp;"_"&amp;X1</f>
         <v>ae1_rpm</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>U1&amp;"_"&amp;Y1</f>
+        <f t="shared" ref="D2:D31" si="1">U1&amp;"_"&amp;Y1</f>
         <v>ae3_rpm</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>V1&amp;"_"&amp;Z1</f>
+        <f t="shared" ref="E2:E31" si="2">V1&amp;"_"&amp;Z1</f>
         <v>me1_rpm</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>W1&amp;"_"&amp;AA1</f>
+        <f t="shared" ref="F2:F31" si="3">W1&amp;"_"&amp;AA1</f>
         <v>me3_rpm</v>
       </c>
       <c r="G2" s="1"/>
@@ -705,23 +730,23 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B31" si="0">(16-COUNTBLANK(C3:R3))/4</f>
+        <f t="shared" ref="B3:B31" si="4">(16-COUNTBLANK(C3:R3))/4</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>T2&amp;"_"&amp;X2</f>
+        <f t="shared" si="0"/>
         <v>ae1_frp</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>U2&amp;"_"&amp;Y2</f>
+        <f t="shared" si="1"/>
         <v>ae3_frp</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>V2&amp;"_"&amp;Z2</f>
+        <f t="shared" si="2"/>
         <v>me1_frp</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>W2&amp;"_"&amp;AA2</f>
+        <f t="shared" si="3"/>
         <v>me3_frp</v>
       </c>
       <c r="G3" s="1"/>
@@ -778,23 +803,23 @@
         <v>3</v>
       </c>
       <c r="B4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>T3&amp;"_"&amp;X3</f>
         <v>ae1_exh_T</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>U3&amp;"_"&amp;Y3</f>
+        <f t="shared" si="1"/>
         <v>ae3_exh_T</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>V3&amp;"_"&amp;Z3</f>
+        <f t="shared" si="2"/>
         <v>me1_exh_T</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>W3&amp;"_"&amp;AA3</f>
+        <f t="shared" si="3"/>
         <v>me3_exh_T</v>
       </c>
       <c r="G4" s="1"/>
@@ -851,23 +876,23 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>T4&amp;"_"&amp;X4</f>
         <v>ae1_TC_rpm</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>U4&amp;"_"&amp;Y4</f>
+        <f t="shared" si="1"/>
         <v>ae3_TC_rpm</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>V4&amp;"_"&amp;Z4</f>
+        <f t="shared" si="2"/>
         <v>me1_TC_rpm</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>W4&amp;"_"&amp;AA4</f>
+        <f t="shared" si="3"/>
         <v>me3_TC_rpm</v>
       </c>
       <c r="G5" s="1"/>
@@ -932,39 +957,39 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>T5&amp;"_"&amp;X5</f>
         <v>ae1_rpm</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>U5&amp;"_"&amp;Y5</f>
+        <f t="shared" si="1"/>
         <v>ae3_rpm</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>V5&amp;"_"&amp;Z5</f>
+        <f t="shared" si="2"/>
         <v>me1_rpm</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>W5&amp;"_"&amp;AA5</f>
+        <f t="shared" si="3"/>
         <v>me3_rpm</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>T5&amp;"_"&amp;AB5</f>
+        <f t="shared" ref="G6:G16" si="5">T5&amp;"_"&amp;AB5</f>
         <v>ae1_frp</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>U5&amp;"_"&amp;AC5</f>
+        <f t="shared" ref="H6:H16" si="6">U5&amp;"_"&amp;AC5</f>
         <v>ae3_frp</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>V5&amp;"_"&amp;AD5</f>
+        <f t="shared" ref="I6:I16" si="7">V5&amp;"_"&amp;AD5</f>
         <v>me1_frp</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f>W5&amp;"_"&amp;AE5</f>
+        <f t="shared" ref="J6:J16" si="8">W5&amp;"_"&amp;AE5</f>
         <v>me3_frp</v>
       </c>
       <c r="K6" s="1"/>
@@ -1025,39 +1050,39 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>T6&amp;"_"&amp;X6</f>
         <v>ae1_rpm</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>U6&amp;"_"&amp;Y6</f>
+        <f t="shared" si="1"/>
         <v>ae3_rpm</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>V6&amp;"_"&amp;Z6</f>
+        <f t="shared" si="2"/>
         <v>me1_rpm</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>W6&amp;"_"&amp;AA6</f>
+        <f t="shared" si="3"/>
         <v>me3_rpm</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>T6&amp;"_"&amp;AB6</f>
+        <f t="shared" si="5"/>
         <v>ae1_exh_T</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>U6&amp;"_"&amp;AC6</f>
+        <f t="shared" si="6"/>
         <v>ae3_exh_T</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>V6&amp;"_"&amp;AD6</f>
+        <f t="shared" si="7"/>
         <v>me1_exh_T</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f>W6&amp;"_"&amp;AE6</f>
+        <f t="shared" si="8"/>
         <v>me3_exh_T</v>
       </c>
       <c r="K7" s="1"/>
@@ -1118,39 +1143,39 @@
         <v>7</v>
       </c>
       <c r="B8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>T7&amp;"_"&amp;X7</f>
         <v>ae1_rpm</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>U7&amp;"_"&amp;Y7</f>
+        <f t="shared" si="1"/>
         <v>ae3_rpm</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>V7&amp;"_"&amp;Z7</f>
+        <f t="shared" si="2"/>
         <v>me1_rpm</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>W7&amp;"_"&amp;AA7</f>
+        <f t="shared" si="3"/>
         <v>me3_rpm</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>T7&amp;"_"&amp;AB7</f>
+        <f t="shared" si="5"/>
         <v>ae1_TC_rpm</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>U7&amp;"_"&amp;AC7</f>
+        <f t="shared" si="6"/>
         <v>ae3_TC_rpm</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>V7&amp;"_"&amp;AD7</f>
+        <f t="shared" si="7"/>
         <v>me1_TC_rpm</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f>W7&amp;"_"&amp;AE7</f>
+        <f t="shared" si="8"/>
         <v>me3_TC_rpm</v>
       </c>
       <c r="K8" s="1"/>
@@ -1211,39 +1236,39 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>T8&amp;"_"&amp;X8</f>
         <v>ae1_frp</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>U8&amp;"_"&amp;Y8</f>
+        <f t="shared" si="1"/>
         <v>ae3_frp</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>V8&amp;"_"&amp;Z8</f>
+        <f t="shared" si="2"/>
         <v>me1_frp</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>W8&amp;"_"&amp;AA8</f>
+        <f t="shared" si="3"/>
         <v>me3_frp</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>T8&amp;"_"&amp;AB8</f>
+        <f t="shared" si="5"/>
         <v>ae1_exh_T</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>U8&amp;"_"&amp;AC8</f>
+        <f t="shared" si="6"/>
         <v>ae3_exh_T</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>V8&amp;"_"&amp;AD8</f>
+        <f t="shared" si="7"/>
         <v>me1_exh_T</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f>W8&amp;"_"&amp;AE8</f>
+        <f t="shared" si="8"/>
         <v>me3_exh_T</v>
       </c>
       <c r="K9" s="1"/>
@@ -1304,39 +1329,39 @@
         <v>9</v>
       </c>
       <c r="B10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>T9&amp;"_"&amp;X9</f>
         <v>ae1_frp</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>U9&amp;"_"&amp;Y9</f>
+        <f t="shared" si="1"/>
         <v>ae3_frp</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>V9&amp;"_"&amp;Z9</f>
+        <f t="shared" si="2"/>
         <v>me1_frp</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>W9&amp;"_"&amp;AA9</f>
+        <f t="shared" si="3"/>
         <v>me3_frp</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>T9&amp;"_"&amp;AB9</f>
+        <f t="shared" si="5"/>
         <v>ae1_TC_rpm</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>U9&amp;"_"&amp;AC9</f>
+        <f t="shared" si="6"/>
         <v>ae3_TC_rpm</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>V9&amp;"_"&amp;AD9</f>
+        <f t="shared" si="7"/>
         <v>me1_TC_rpm</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f>W9&amp;"_"&amp;AE9</f>
+        <f t="shared" si="8"/>
         <v>me3_TC_rpm</v>
       </c>
       <c r="K10" s="1"/>
@@ -1397,39 +1422,39 @@
         <v>10</v>
       </c>
       <c r="B11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>T10&amp;"_"&amp;X10</f>
         <v>ae1_exh_T</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>U10&amp;"_"&amp;Y10</f>
+        <f t="shared" si="1"/>
         <v>ae3_exh_T</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>V10&amp;"_"&amp;Z10</f>
+        <f t="shared" si="2"/>
         <v>me1_exh_T</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>W10&amp;"_"&amp;AA10</f>
+        <f t="shared" si="3"/>
         <v>me3_exh_T</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>T10&amp;"_"&amp;AB10</f>
+        <f t="shared" si="5"/>
         <v>ae1_TC_rpm</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>U10&amp;"_"&amp;AC10</f>
+        <f t="shared" si="6"/>
         <v>ae3_TC_rpm</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>V10&amp;"_"&amp;AD10</f>
+        <f t="shared" si="7"/>
         <v>me1_TC_rpm</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f>W10&amp;"_"&amp;AE10</f>
+        <f t="shared" si="8"/>
         <v>me3_TC_rpm</v>
       </c>
       <c r="K11" s="1"/>
@@ -1498,55 +1523,55 @@
         <v>11</v>
       </c>
       <c r="B12">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>T11&amp;"_"&amp;X11</f>
         <v>ae1_rpm</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>U11&amp;"_"&amp;Y11</f>
+        <f t="shared" si="1"/>
         <v>ae3_rpm</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>V11&amp;"_"&amp;Z11</f>
+        <f t="shared" si="2"/>
         <v>me1_rpm</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>W11&amp;"_"&amp;AA11</f>
+        <f t="shared" si="3"/>
         <v>me3_rpm</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>T11&amp;"_"&amp;AB11</f>
+        <f t="shared" si="5"/>
         <v>ae1_frp</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>U11&amp;"_"&amp;AC11</f>
+        <f t="shared" si="6"/>
         <v>ae3_frp</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>V11&amp;"_"&amp;AD11</f>
+        <f t="shared" si="7"/>
         <v>me1_frp</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f>W11&amp;"_"&amp;AE11</f>
+        <f t="shared" si="8"/>
         <v>me3_frp</v>
       </c>
       <c r="K12" s="1" t="str">
-        <f>T11&amp;"_"&amp;AF11</f>
+        <f t="shared" ref="K12:N16" si="9">T11&amp;"_"&amp;AF11</f>
         <v>ae1_exh_T</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f>U11&amp;"_"&amp;AG11</f>
+        <f t="shared" si="9"/>
         <v>ae3_exh_T</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f>V11&amp;"_"&amp;AH11</f>
+        <f t="shared" si="9"/>
         <v>me1_exh_T</v>
       </c>
       <c r="N12" s="1" t="str">
-        <f>W11&amp;"_"&amp;AI11</f>
+        <f t="shared" si="9"/>
         <v>me3_exh_T</v>
       </c>
       <c r="O12" s="1"/>
@@ -1611,55 +1636,55 @@
         <v>12</v>
       </c>
       <c r="B13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>T12&amp;"_"&amp;X12</f>
         <v>ae1_rpm</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>U12&amp;"_"&amp;Y12</f>
+        <f t="shared" si="1"/>
         <v>ae3_rpm</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>V12&amp;"_"&amp;Z12</f>
+        <f t="shared" si="2"/>
         <v>me1_rpm</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>W12&amp;"_"&amp;AA12</f>
+        <f t="shared" si="3"/>
         <v>me3_rpm</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>T12&amp;"_"&amp;AB12</f>
+        <f t="shared" si="5"/>
         <v>ae1_frp</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>U12&amp;"_"&amp;AC12</f>
+        <f t="shared" si="6"/>
         <v>ae3_frp</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>V12&amp;"_"&amp;AD12</f>
+        <f t="shared" si="7"/>
         <v>me1_frp</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f>W12&amp;"_"&amp;AE12</f>
+        <f t="shared" si="8"/>
         <v>me3_frp</v>
       </c>
       <c r="K13" s="1" t="str">
-        <f>T12&amp;"_"&amp;AF12</f>
+        <f t="shared" si="9"/>
         <v>ae1_TC_rpm</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f>U12&amp;"_"&amp;AG12</f>
+        <f t="shared" si="9"/>
         <v>ae3_TC_rpm</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f>V12&amp;"_"&amp;AH12</f>
+        <f t="shared" si="9"/>
         <v>me1_TC_rpm</v>
       </c>
       <c r="N13" s="1" t="str">
-        <f>W12&amp;"_"&amp;AI12</f>
+        <f t="shared" si="9"/>
         <v>me3_TC_rpm</v>
       </c>
       <c r="O13" s="1"/>
@@ -1724,55 +1749,55 @@
         <v>13</v>
       </c>
       <c r="B14">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>T13&amp;"_"&amp;X13</f>
         <v>ae1_rpm</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>U13&amp;"_"&amp;Y13</f>
+        <f t="shared" si="1"/>
         <v>ae3_rpm</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>V13&amp;"_"&amp;Z13</f>
+        <f t="shared" si="2"/>
         <v>me1_rpm</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>W13&amp;"_"&amp;AA13</f>
+        <f t="shared" si="3"/>
         <v>me3_rpm</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>T13&amp;"_"&amp;AB13</f>
+        <f t="shared" si="5"/>
         <v>ae1_exh_T</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>U13&amp;"_"&amp;AC13</f>
+        <f t="shared" si="6"/>
         <v>ae3_exh_T</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>V13&amp;"_"&amp;AD13</f>
+        <f t="shared" si="7"/>
         <v>me1_exh_T</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f>W13&amp;"_"&amp;AE13</f>
+        <f t="shared" si="8"/>
         <v>me3_exh_T</v>
       </c>
       <c r="K14" s="1" t="str">
-        <f>T13&amp;"_"&amp;AF13</f>
+        <f t="shared" si="9"/>
         <v>ae1_TC_rpm</v>
       </c>
       <c r="L14" s="1" t="str">
-        <f>U13&amp;"_"&amp;AG13</f>
+        <f t="shared" si="9"/>
         <v>ae3_TC_rpm</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f>V13&amp;"_"&amp;AH13</f>
+        <f t="shared" si="9"/>
         <v>me1_TC_rpm</v>
       </c>
       <c r="N14" s="1" t="str">
-        <f>W13&amp;"_"&amp;AI13</f>
+        <f t="shared" si="9"/>
         <v>me3_TC_rpm</v>
       </c>
       <c r="O14" s="1"/>
@@ -1837,55 +1862,55 @@
         <v>14</v>
       </c>
       <c r="B15">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>T14&amp;"_"&amp;X14</f>
         <v>ae1_frp</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>U14&amp;"_"&amp;Y14</f>
+        <f t="shared" si="1"/>
         <v>ae3_frp</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>V14&amp;"_"&amp;Z14</f>
+        <f t="shared" si="2"/>
         <v>me1_frp</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>W14&amp;"_"&amp;AA14</f>
+        <f t="shared" si="3"/>
         <v>me3_frp</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>T14&amp;"_"&amp;AB14</f>
+        <f t="shared" si="5"/>
         <v>ae1_exh_T</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>U14&amp;"_"&amp;AC14</f>
+        <f t="shared" si="6"/>
         <v>ae3_exh_T</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>V14&amp;"_"&amp;AD14</f>
+        <f t="shared" si="7"/>
         <v>me1_exh_T</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f>W14&amp;"_"&amp;AE14</f>
+        <f t="shared" si="8"/>
         <v>me3_exh_T</v>
       </c>
       <c r="K15" s="1" t="str">
-        <f>T14&amp;"_"&amp;AF14</f>
+        <f t="shared" si="9"/>
         <v>ae1_TC_rpm</v>
       </c>
       <c r="L15" s="1" t="str">
-        <f>U14&amp;"_"&amp;AG14</f>
+        <f t="shared" si="9"/>
         <v>ae3_TC_rpm</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f>V14&amp;"_"&amp;AH14</f>
+        <f t="shared" si="9"/>
         <v>me1_TC_rpm</v>
       </c>
       <c r="N15" s="1" t="str">
-        <f>W14&amp;"_"&amp;AI14</f>
+        <f t="shared" si="9"/>
         <v>me3_TC_rpm</v>
       </c>
       <c r="O15" s="1"/>
@@ -1958,55 +1983,55 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>T15&amp;"_"&amp;X15</f>
         <v>ae1_rpm</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>U15&amp;"_"&amp;Y15</f>
+        <f t="shared" si="1"/>
         <v>ae3_rpm</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>V15&amp;"_"&amp;Z15</f>
+        <f t="shared" si="2"/>
         <v>me1_rpm</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>W15&amp;"_"&amp;AA15</f>
+        <f t="shared" si="3"/>
         <v>me3_rpm</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>T15&amp;"_"&amp;AB15</f>
+        <f t="shared" si="5"/>
         <v>ae1_frp</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>U15&amp;"_"&amp;AC15</f>
+        <f t="shared" si="6"/>
         <v>ae3_frp</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>V15&amp;"_"&amp;AD15</f>
+        <f t="shared" si="7"/>
         <v>me1_frp</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f>W15&amp;"_"&amp;AE15</f>
+        <f t="shared" si="8"/>
         <v>me3_frp</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f>T15&amp;"_"&amp;AF15</f>
+        <f t="shared" si="9"/>
         <v>ae1_exh_T</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f>U15&amp;"_"&amp;AG15</f>
+        <f t="shared" si="9"/>
         <v>ae3_exh_T</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f>V15&amp;"_"&amp;AH15</f>
+        <f t="shared" si="9"/>
         <v>me1_exh_T</v>
       </c>
       <c r="N16" s="1" t="str">
-        <f>W15&amp;"_"&amp;AI15</f>
+        <f t="shared" si="9"/>
         <v>me3_exh_T</v>
       </c>
       <c r="O16" s="1" t="str">
@@ -2014,15 +2039,15 @@
         <v>ae1_TC_rpm</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f t="shared" ref="P16" si="1">U15&amp;"_"&amp;AK15</f>
+        <f t="shared" ref="P16" si="10">U15&amp;"_"&amp;AK15</f>
         <v>ae3_TC_rpm</v>
       </c>
       <c r="Q16" s="1" t="str">
-        <f t="shared" ref="Q16" si="2">V15&amp;"_"&amp;AL15</f>
+        <f t="shared" ref="Q16" si="11">V15&amp;"_"&amp;AL15</f>
         <v>me1_TC_rpm</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f t="shared" ref="R16" si="3">W15&amp;"_"&amp;AM15</f>
+        <f t="shared" ref="R16" si="12">W15&amp;"_"&amp;AM15</f>
         <v>me3_TC_rpm</v>
       </c>
       <c r="T16" t="s">
@@ -2067,23 +2092,23 @@
         <v>16</v>
       </c>
       <c r="B17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>T16&amp;"_"&amp;X16</f>
         <v>ae2_rpm</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>U16&amp;"_"&amp;Y16</f>
+        <f t="shared" si="1"/>
         <v>ae4_rpm</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>V16&amp;"_"&amp;Z16</f>
+        <f t="shared" si="2"/>
         <v>me2_rpm</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>W16&amp;"_"&amp;AA16</f>
+        <f t="shared" si="3"/>
         <v>me4_rpm</v>
       </c>
       <c r="G17" s="1"/>
@@ -2140,23 +2165,23 @@
         <v>17</v>
       </c>
       <c r="B18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>T17&amp;"_"&amp;X17</f>
         <v>ae2_frp</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>U17&amp;"_"&amp;Y17</f>
+        <f t="shared" si="1"/>
         <v>ae4_frp</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>V17&amp;"_"&amp;Z17</f>
+        <f t="shared" si="2"/>
         <v>me2_frp</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>W17&amp;"_"&amp;AA17</f>
+        <f t="shared" si="3"/>
         <v>me4_frp</v>
       </c>
       <c r="G18" s="1"/>
@@ -2213,23 +2238,23 @@
         <v>18</v>
       </c>
       <c r="B19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f>T18&amp;"_"&amp;X18</f>
         <v>ae2_exh_T</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>U18&amp;"_"&amp;Y18</f>
+        <f t="shared" si="1"/>
         <v>ae4_exh_T</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>V18&amp;"_"&amp;Z18</f>
+        <f t="shared" si="2"/>
         <v>me2_exh_T</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>W18&amp;"_"&amp;AA18</f>
+        <f t="shared" si="3"/>
         <v>me4_exh_T</v>
       </c>
       <c r="G19" s="1"/>
@@ -2286,23 +2311,23 @@
         <v>19</v>
       </c>
       <c r="B20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f>T19&amp;"_"&amp;X19</f>
         <v>ae2_TC_rpm</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>U19&amp;"_"&amp;Y19</f>
+        <f t="shared" si="1"/>
         <v>ae4_TC_rpm</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>V19&amp;"_"&amp;Z19</f>
+        <f t="shared" si="2"/>
         <v>me2_TC_rpm</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>W19&amp;"_"&amp;AA19</f>
+        <f t="shared" si="3"/>
         <v>me4_TC_rpm</v>
       </c>
       <c r="G20" s="1"/>
@@ -2367,39 +2392,39 @@
         <v>20</v>
       </c>
       <c r="B21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f>T20&amp;"_"&amp;X20</f>
         <v>ae2_rpm</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>U20&amp;"_"&amp;Y20</f>
+        <f t="shared" si="1"/>
         <v>ae4_rpm</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>V20&amp;"_"&amp;Z20</f>
+        <f t="shared" si="2"/>
         <v>me2_rpm</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>W20&amp;"_"&amp;AA20</f>
+        <f t="shared" si="3"/>
         <v>me4_rpm</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>T20&amp;"_"&amp;AB20</f>
+        <f t="shared" ref="G21:G31" si="13">T20&amp;"_"&amp;AB20</f>
         <v>ae2_frp</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>U20&amp;"_"&amp;AC20</f>
+        <f t="shared" ref="H21:H31" si="14">U20&amp;"_"&amp;AC20</f>
         <v>ae4_frp</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>V20&amp;"_"&amp;AD20</f>
+        <f t="shared" ref="I21:I31" si="15">V20&amp;"_"&amp;AD20</f>
         <v>me2_frp</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f>W20&amp;"_"&amp;AE20</f>
+        <f t="shared" ref="J21:J31" si="16">W20&amp;"_"&amp;AE20</f>
         <v>me4_frp</v>
       </c>
       <c r="K21" s="1"/>
@@ -2460,39 +2485,39 @@
         <v>21</v>
       </c>
       <c r="B22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f>T21&amp;"_"&amp;X21</f>
         <v>ae2_rpm</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>U21&amp;"_"&amp;Y21</f>
+        <f t="shared" si="1"/>
         <v>ae4_rpm</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>V21&amp;"_"&amp;Z21</f>
+        <f t="shared" si="2"/>
         <v>me2_rpm</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>W21&amp;"_"&amp;AA21</f>
+        <f t="shared" si="3"/>
         <v>me4_rpm</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>T21&amp;"_"&amp;AB21</f>
+        <f t="shared" si="13"/>
         <v>ae2_exh_T</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>U21&amp;"_"&amp;AC21</f>
+        <f t="shared" si="14"/>
         <v>ae4_exh_T</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>V21&amp;"_"&amp;AD21</f>
+        <f t="shared" si="15"/>
         <v>me2_exh_T</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f>W21&amp;"_"&amp;AE21</f>
+        <f t="shared" si="16"/>
         <v>me4_exh_T</v>
       </c>
       <c r="K22" s="1"/>
@@ -2553,39 +2578,39 @@
         <v>22</v>
       </c>
       <c r="B23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f>T22&amp;"_"&amp;X22</f>
         <v>ae2_rpm</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>U22&amp;"_"&amp;Y22</f>
+        <f t="shared" si="1"/>
         <v>ae4_rpm</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>V22&amp;"_"&amp;Z22</f>
+        <f t="shared" si="2"/>
         <v>me2_rpm</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>W22&amp;"_"&amp;AA22</f>
+        <f t="shared" si="3"/>
         <v>me4_rpm</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>T22&amp;"_"&amp;AB22</f>
+        <f t="shared" si="13"/>
         <v>ae2_TC_rpm</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>U22&amp;"_"&amp;AC22</f>
+        <f t="shared" si="14"/>
         <v>ae4_TC_rpm</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>V22&amp;"_"&amp;AD22</f>
+        <f t="shared" si="15"/>
         <v>me2_TC_rpm</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f>W22&amp;"_"&amp;AE22</f>
+        <f t="shared" si="16"/>
         <v>me4_TC_rpm</v>
       </c>
       <c r="K23" s="1"/>
@@ -2646,39 +2671,39 @@
         <v>23</v>
       </c>
       <c r="B24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f>T23&amp;"_"&amp;X23</f>
         <v>ae2_frp</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>U23&amp;"_"&amp;Y23</f>
+        <f t="shared" si="1"/>
         <v>ae4_frp</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>V23&amp;"_"&amp;Z23</f>
+        <f t="shared" si="2"/>
         <v>me2_frp</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>W23&amp;"_"&amp;AA23</f>
+        <f t="shared" si="3"/>
         <v>me4_frp</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>T23&amp;"_"&amp;AB23</f>
+        <f t="shared" si="13"/>
         <v>ae2_exh_T</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>U23&amp;"_"&amp;AC23</f>
+        <f t="shared" si="14"/>
         <v>ae4_exh_T</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>V23&amp;"_"&amp;AD23</f>
+        <f t="shared" si="15"/>
         <v>me2_exh_T</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f>W23&amp;"_"&amp;AE23</f>
+        <f t="shared" si="16"/>
         <v>me4_exh_T</v>
       </c>
       <c r="K24" s="1"/>
@@ -2739,39 +2764,39 @@
         <v>24</v>
       </c>
       <c r="B25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f>T24&amp;"_"&amp;X24</f>
         <v>ae2_frp</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>U24&amp;"_"&amp;Y24</f>
+        <f t="shared" si="1"/>
         <v>ae4_frp</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>V24&amp;"_"&amp;Z24</f>
+        <f t="shared" si="2"/>
         <v>me2_frp</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>W24&amp;"_"&amp;AA24</f>
+        <f t="shared" si="3"/>
         <v>me4_frp</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>T24&amp;"_"&amp;AB24</f>
+        <f t="shared" si="13"/>
         <v>ae2_TC_rpm</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>U24&amp;"_"&amp;AC24</f>
+        <f t="shared" si="14"/>
         <v>ae4_TC_rpm</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>V24&amp;"_"&amp;AD24</f>
+        <f t="shared" si="15"/>
         <v>me2_TC_rpm</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f>W24&amp;"_"&amp;AE24</f>
+        <f t="shared" si="16"/>
         <v>me4_TC_rpm</v>
       </c>
       <c r="K25" s="1"/>
@@ -2832,39 +2857,39 @@
         <v>25</v>
       </c>
       <c r="B26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f>T25&amp;"_"&amp;X25</f>
         <v>ae2_exh_T</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>U25&amp;"_"&amp;Y25</f>
+        <f t="shared" si="1"/>
         <v>ae4_exh_T</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>V25&amp;"_"&amp;Z25</f>
+        <f t="shared" si="2"/>
         <v>me2_exh_T</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>W25&amp;"_"&amp;AA25</f>
+        <f t="shared" si="3"/>
         <v>me4_exh_T</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>T25&amp;"_"&amp;AB25</f>
+        <f t="shared" si="13"/>
         <v>ae2_TC_rpm</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>U25&amp;"_"&amp;AC25</f>
+        <f t="shared" si="14"/>
         <v>ae4_TC_rpm</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>V25&amp;"_"&amp;AD25</f>
+        <f t="shared" si="15"/>
         <v>me2_TC_rpm</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f>W25&amp;"_"&amp;AE25</f>
+        <f t="shared" si="16"/>
         <v>me4_TC_rpm</v>
       </c>
       <c r="K26" s="1"/>
@@ -2933,55 +2958,55 @@
         <v>26</v>
       </c>
       <c r="B27">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f>T26&amp;"_"&amp;X26</f>
         <v>ae2_rpm</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>U26&amp;"_"&amp;Y26</f>
+        <f t="shared" si="1"/>
         <v>ae4_rpm</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>V26&amp;"_"&amp;Z26</f>
+        <f t="shared" si="2"/>
         <v>me2_rpm</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>W26&amp;"_"&amp;AA26</f>
+        <f t="shared" si="3"/>
         <v>me4_rpm</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>T26&amp;"_"&amp;AB26</f>
+        <f t="shared" si="13"/>
         <v>ae2_frp</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>U26&amp;"_"&amp;AC26</f>
+        <f t="shared" si="14"/>
         <v>ae4_frp</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>V26&amp;"_"&amp;AD26</f>
+        <f t="shared" si="15"/>
         <v>me2_frp</v>
       </c>
       <c r="J27" s="1" t="str">
-        <f>W26&amp;"_"&amp;AE26</f>
+        <f t="shared" si="16"/>
         <v>me4_frp</v>
       </c>
       <c r="K27" s="1" t="str">
-        <f>T26&amp;"_"&amp;AF26</f>
+        <f t="shared" ref="K27:N31" si="17">T26&amp;"_"&amp;AF26</f>
         <v>ae2_exh_T</v>
       </c>
       <c r="L27" s="1" t="str">
-        <f>U26&amp;"_"&amp;AG26</f>
+        <f t="shared" si="17"/>
         <v>ae4_exh_T</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f>V26&amp;"_"&amp;AH26</f>
+        <f t="shared" si="17"/>
         <v>me2_exh_T</v>
       </c>
       <c r="N27" s="1" t="str">
-        <f>W26&amp;"_"&amp;AI26</f>
+        <f t="shared" si="17"/>
         <v>me4_exh_T</v>
       </c>
       <c r="O27" s="1"/>
@@ -3046,55 +3071,55 @@
         <v>27</v>
       </c>
       <c r="B28">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f>T27&amp;"_"&amp;X27</f>
         <v>ae2_rpm</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>U27&amp;"_"&amp;Y27</f>
+        <f t="shared" si="1"/>
         <v>ae4_rpm</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>V27&amp;"_"&amp;Z27</f>
+        <f t="shared" si="2"/>
         <v>me2_rpm</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>W27&amp;"_"&amp;AA27</f>
+        <f t="shared" si="3"/>
         <v>me4_rpm</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>T27&amp;"_"&amp;AB27</f>
+        <f t="shared" si="13"/>
         <v>ae2_frp</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>U27&amp;"_"&amp;AC27</f>
+        <f t="shared" si="14"/>
         <v>ae4_frp</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>V27&amp;"_"&amp;AD27</f>
+        <f t="shared" si="15"/>
         <v>me2_frp</v>
       </c>
       <c r="J28" s="1" t="str">
-        <f>W27&amp;"_"&amp;AE27</f>
+        <f t="shared" si="16"/>
         <v>me4_frp</v>
       </c>
       <c r="K28" s="1" t="str">
-        <f>T27&amp;"_"&amp;AF27</f>
+        <f t="shared" si="17"/>
         <v>ae2_TC_rpm</v>
       </c>
       <c r="L28" s="1" t="str">
-        <f>U27&amp;"_"&amp;AG27</f>
+        <f t="shared" si="17"/>
         <v>ae4_TC_rpm</v>
       </c>
       <c r="M28" s="1" t="str">
-        <f>V27&amp;"_"&amp;AH27</f>
+        <f t="shared" si="17"/>
         <v>me2_TC_rpm</v>
       </c>
       <c r="N28" s="1" t="str">
-        <f>W27&amp;"_"&amp;AI27</f>
+        <f t="shared" si="17"/>
         <v>me4_TC_rpm</v>
       </c>
       <c r="O28" s="1"/>
@@ -3159,55 +3184,55 @@
         <v>28</v>
       </c>
       <c r="B29">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f>T28&amp;"_"&amp;X28</f>
         <v>ae2_rpm</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>U28&amp;"_"&amp;Y28</f>
+        <f t="shared" si="1"/>
         <v>ae4_rpm</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>V28&amp;"_"&amp;Z28</f>
+        <f t="shared" si="2"/>
         <v>me2_rpm</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>W28&amp;"_"&amp;AA28</f>
+        <f t="shared" si="3"/>
         <v>me4_rpm</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>T28&amp;"_"&amp;AB28</f>
+        <f t="shared" si="13"/>
         <v>ae2_exh_T</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>U28&amp;"_"&amp;AC28</f>
+        <f t="shared" si="14"/>
         <v>ae4_exh_T</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>V28&amp;"_"&amp;AD28</f>
+        <f t="shared" si="15"/>
         <v>me2_exh_T</v>
       </c>
       <c r="J29" s="1" t="str">
-        <f>W28&amp;"_"&amp;AE28</f>
+        <f t="shared" si="16"/>
         <v>me4_exh_T</v>
       </c>
       <c r="K29" s="1" t="str">
-        <f>T28&amp;"_"&amp;AF28</f>
+        <f t="shared" si="17"/>
         <v>ae2_TC_rpm</v>
       </c>
       <c r="L29" s="1" t="str">
-        <f>U28&amp;"_"&amp;AG28</f>
+        <f t="shared" si="17"/>
         <v>ae4_TC_rpm</v>
       </c>
       <c r="M29" s="1" t="str">
-        <f>V28&amp;"_"&amp;AH28</f>
+        <f t="shared" si="17"/>
         <v>me2_TC_rpm</v>
       </c>
       <c r="N29" s="1" t="str">
-        <f>W28&amp;"_"&amp;AI28</f>
+        <f t="shared" si="17"/>
         <v>me4_TC_rpm</v>
       </c>
       <c r="O29" s="1"/>
@@ -3272,55 +3297,55 @@
         <v>29</v>
       </c>
       <c r="B30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f>T29&amp;"_"&amp;X29</f>
         <v>ae2_frp</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>U29&amp;"_"&amp;Y29</f>
+        <f t="shared" si="1"/>
         <v>ae4_frp</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>V29&amp;"_"&amp;Z29</f>
+        <f t="shared" si="2"/>
         <v>me2_frp</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>W29&amp;"_"&amp;AA29</f>
+        <f t="shared" si="3"/>
         <v>me4_frp</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>T29&amp;"_"&amp;AB29</f>
+        <f t="shared" si="13"/>
         <v>ae2_exh_T</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f>U29&amp;"_"&amp;AC29</f>
+        <f t="shared" si="14"/>
         <v>ae4_exh_T</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>V29&amp;"_"&amp;AD29</f>
+        <f t="shared" si="15"/>
         <v>me2_exh_T</v>
       </c>
       <c r="J30" s="1" t="str">
-        <f>W29&amp;"_"&amp;AE29</f>
+        <f t="shared" si="16"/>
         <v>me4_exh_T</v>
       </c>
       <c r="K30" s="1" t="str">
-        <f>T29&amp;"_"&amp;AF29</f>
+        <f t="shared" si="17"/>
         <v>ae2_TC_rpm</v>
       </c>
       <c r="L30" s="1" t="str">
-        <f>U29&amp;"_"&amp;AG29</f>
+        <f t="shared" si="17"/>
         <v>ae4_TC_rpm</v>
       </c>
       <c r="M30" s="1" t="str">
-        <f>V29&amp;"_"&amp;AH29</f>
+        <f t="shared" si="17"/>
         <v>me2_TC_rpm</v>
       </c>
       <c r="N30" s="1" t="str">
-        <f>W29&amp;"_"&amp;AI29</f>
+        <f t="shared" si="17"/>
         <v>me4_TC_rpm</v>
       </c>
       <c r="O30" s="1"/>
@@ -3393,55 +3418,55 @@
         <v>30</v>
       </c>
       <c r="B31">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f>T30&amp;"_"&amp;X30</f>
         <v>ae2_rpm</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>U30&amp;"_"&amp;Y30</f>
+        <f t="shared" si="1"/>
         <v>ae4_rpm</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>V30&amp;"_"&amp;Z30</f>
+        <f t="shared" si="2"/>
         <v>me2_rpm</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>W30&amp;"_"&amp;AA30</f>
+        <f t="shared" si="3"/>
         <v>me4_rpm</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>T30&amp;"_"&amp;AB30</f>
+        <f t="shared" si="13"/>
         <v>ae2_frp</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f>U30&amp;"_"&amp;AC30</f>
+        <f t="shared" si="14"/>
         <v>ae4_frp</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>V30&amp;"_"&amp;AD30</f>
+        <f t="shared" si="15"/>
         <v>me2_frp</v>
       </c>
       <c r="J31" s="1" t="str">
-        <f>W30&amp;"_"&amp;AE30</f>
+        <f t="shared" si="16"/>
         <v>me4_frp</v>
       </c>
       <c r="K31" s="1" t="str">
-        <f>T30&amp;"_"&amp;AF30</f>
+        <f t="shared" si="17"/>
         <v>ae2_exh_T</v>
       </c>
       <c r="L31" s="1" t="str">
-        <f>U30&amp;"_"&amp;AG30</f>
+        <f t="shared" si="17"/>
         <v>ae4_exh_T</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f>V30&amp;"_"&amp;AH30</f>
+        <f t="shared" si="17"/>
         <v>me2_exh_T</v>
       </c>
       <c r="N31" s="1" t="str">
-        <f>W30&amp;"_"&amp;AI30</f>
+        <f t="shared" si="17"/>
         <v>me4_exh_T</v>
       </c>
       <c r="O31" s="1" t="str">
@@ -3449,30 +3474,1649 @@
         <v>ae2_TC_rpm</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f t="shared" ref="P31:R31" si="4">U30&amp;"_"&amp;AK30</f>
+        <f t="shared" ref="P31:R31" si="18">U30&amp;"_"&amp;AK30</f>
         <v>ae4_TC_rpm</v>
       </c>
       <c r="Q31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>me2_TC_rpm</v>
       </c>
       <c r="R31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>me4_TC_rpm</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="X1:AM30">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(X1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:R31">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
     <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(C2))&gt;0</formula>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:V32"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="S6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="S7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="S8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="S9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="S12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="S13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="S14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="S16" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:Q32 S17:V17">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(B3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="str">
+        <f>A3&amp;" and "&amp;B3</f>
+        <v>0 and 15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C17" si="0">A4&amp;" and "&amp;B4</f>
+        <v>1 and 16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>2 and 17</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>3 and 18</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>4 and 19</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>5 and 20</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>6 and 21</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>7 and 22</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>8 and 23</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>9 and 24</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>10 and 25</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>11 and 26</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>12 and 27</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>13 and 28</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>14 and 29</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E17:H17">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
